--- a/FishLandings/household groups/statistics/Iron (mg)_output.xlsx
+++ b/FishLandings/household groups/statistics/Iron (mg)_output.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>36838.023985</v>
+        <v>48619.693414</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>51.418332</v>
+        <v>78.198396</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>12345.922808</v>
+        <v>21367.679467</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>8.616189</v>
+        <v>17.183554</v>
       </c>
       <c r="E3">
-        <v>0.000249</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>159765.575023</v>
+        <v>206420.324723</v>
       </c>
       <c r="C4">
-        <v>223</v>
+        <v>332</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>-10.000859</v>
+        <v>-9.857059</v>
       </c>
       <c r="H5">
-        <v>-21.690692</v>
+        <v>-18.897534</v>
       </c>
       <c r="I5">
-        <v>1.688973</v>
+        <v>-0.816585</v>
       </c>
       <c r="J5">
-        <v>0.110103</v>
+        <v>0.028756</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>6.429079</v>
+        <v>7.799861</v>
       </c>
       <c r="H6">
-        <v>-6.158395</v>
+        <v>-1.695702</v>
       </c>
       <c r="I6">
-        <v>19.016554</v>
+        <v>17.295425</v>
       </c>
       <c r="J6">
-        <v>0.451391</v>
+        <v>0.130823</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>16.429939</v>
+        <v>17.65692</v>
       </c>
       <c r="H7">
-        <v>6.913677</v>
+        <v>10.516891</v>
       </c>
       <c r="I7">
-        <v>25.9462</v>
+        <v>24.79695</v>
       </c>
       <c r="J7">
-        <v>0.00019</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/FishLandings/household groups/statistics/Iron (mg)_output.xlsx
+++ b/FishLandings/household groups/statistics/Iron (mg)_output.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>48619.693414</v>
+        <v>36838.023985</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>78.198396</v>
+        <v>51.418332</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>21367.679467</v>
+        <v>12345.922808</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>17.183554</v>
+        <v>8.616189</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.000249</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>206420.324723</v>
+        <v>159765.575023</v>
       </c>
       <c r="C4">
-        <v>332</v>
+        <v>223</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>-9.857059</v>
+        <v>-10.000859</v>
       </c>
       <c r="H5">
-        <v>-18.897534</v>
+        <v>-21.690692</v>
       </c>
       <c r="I5">
-        <v>-0.816585</v>
+        <v>1.688973</v>
       </c>
       <c r="J5">
-        <v>0.028756</v>
+        <v>0.110103</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>7.799861</v>
+        <v>6.429079</v>
       </c>
       <c r="H6">
-        <v>-1.695702</v>
+        <v>-6.158395</v>
       </c>
       <c r="I6">
-        <v>17.295425</v>
+        <v>19.016554</v>
       </c>
       <c r="J6">
-        <v>0.130823</v>
+        <v>0.451391</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>17.65692</v>
+        <v>16.429939</v>
       </c>
       <c r="H7">
-        <v>10.516891</v>
+        <v>6.913677</v>
       </c>
       <c r="I7">
-        <v>24.79695</v>
+        <v>25.9462</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.00019</v>
       </c>
     </row>
   </sheetData>
